--- a/Configuration/EngineeringCreateData.xlsx
+++ b/Configuration/EngineeringCreateData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC02EB-1424-4346-93DF-B709C0374624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3619B1E1-D3B2-4716-BF31-17A5E5D06282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="6075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContractorMaster_Create" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,15 @@
     <sheet name="StoreMaster_Create" sheetId="4" r:id="rId4"/>
     <sheet name="BOQ_Create" sheetId="8" r:id="rId5"/>
     <sheet name="Indent_Create" sheetId="7" r:id="rId6"/>
+    <sheet name="PO_Create" sheetId="10" r:id="rId7"/>
+    <sheet name="GRN_Create" sheetId="17" r:id="rId8"/>
+    <sheet name="Workorder_Create" sheetId="14" r:id="rId9"/>
+    <sheet name="Abstract_Create" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="238">
   <si>
     <t>Contractor name</t>
   </si>
@@ -463,13 +468,290 @@
   </si>
   <si>
     <t>NonCompany</t>
+  </si>
+  <si>
+    <t>Shrachi Burdwan Developers Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>A.G.Enterprise, Burdwan</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Indent No</t>
+  </si>
+  <si>
+    <t>Work Order No</t>
+  </si>
+  <si>
+    <t>PO Quantity</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Material Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay Kumar Agarwal, </t>
+  </si>
+  <si>
+    <t>Service Provider Name</t>
+  </si>
+  <si>
+    <t>Supplier Advance Allowed (%)</t>
+  </si>
+  <si>
+    <t>Service Certificate Advance Allowed (%)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Other Charges</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>sub project</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>32.52</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>220.5</t>
+  </si>
+  <si>
+    <t>180.65</t>
+  </si>
+  <si>
+    <t>188.52</t>
+  </si>
+  <si>
+    <t>210.89</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>PO Qty</t>
+  </si>
+  <si>
+    <t>Handling Charges</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>250.55</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>GRN Type</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>To Store</t>
+  </si>
+  <si>
+    <t>Received Qty</t>
+  </si>
+  <si>
+    <t>100.65</t>
+  </si>
+  <si>
+    <t>60.20</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/42/7</t>
+  </si>
+  <si>
+    <t>Subproject</t>
+  </si>
+  <si>
+    <t>WO currency Type DD</t>
+  </si>
+  <si>
+    <t>WO Scope DD</t>
+  </si>
+  <si>
+    <t>WO Type DD</t>
+  </si>
+  <si>
+    <t>Work category DD</t>
+  </si>
+  <si>
+    <t>Work Subcategory DD</t>
+  </si>
+  <si>
+    <t>WO payment from</t>
+  </si>
+  <si>
+    <t>Addition Tax Category</t>
+  </si>
+  <si>
+    <t>Addition Tax</t>
+  </si>
+  <si>
+    <t>Addition Tax Type</t>
+  </si>
+  <si>
+    <t>BOQ ID</t>
+  </si>
+  <si>
+    <t>BOQ quantity</t>
+  </si>
+  <si>
+    <t>BOQ rate</t>
+  </si>
+  <si>
+    <t>Deduction tax cat</t>
+  </si>
+  <si>
+    <t>Deduction Tax</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>BURDWAN TOWNSHIP PHASE -2</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Single Category</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>IGST</t>
+  </si>
+  <si>
+    <t>IGST 12% -Unreconciled</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>TDS 2.000 %</t>
+  </si>
+  <si>
+    <t>Discount Type DD</t>
+  </si>
+  <si>
+    <t>Fixed Amount</t>
+  </si>
+  <si>
+    <t>IGST 18% -Unreconciled</t>
+  </si>
+  <si>
+    <t>TDS 1.00%</t>
+  </si>
+  <si>
+    <t>Mobilization Percent</t>
+  </si>
+  <si>
+    <t>WCT</t>
+  </si>
+  <si>
+    <t>WCT tax 3.000 %</t>
+  </si>
+  <si>
+    <t>Back Date</t>
+  </si>
+  <si>
+    <t>Work order</t>
+  </si>
+  <si>
+    <t>99acres.com (WO/BTSP/RPTGSA3/62)</t>
+  </si>
+  <si>
+    <t>AASTHA (WO/BTSP/RPTGSA3/60)</t>
+  </si>
+  <si>
+    <t>Z-TECH (INDIA) PVT. LTD. (WO/BTSP/RPTGSA3/61)</t>
+  </si>
+  <si>
+    <t>A.R.S Enterprise (WO/BTSP/RPTGSA3/59)</t>
+  </si>
+  <si>
+    <t>work subcategory</t>
+  </si>
+  <si>
+    <t>[Select One]</t>
+  </si>
+  <si>
+    <t>Bill item qty</t>
+  </si>
+  <si>
+    <t>SUDHA UDYOG, Asansol</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>PO/15Oct2022/SUDHA/8</t>
+  </si>
+  <si>
+    <t>Burdwan Township - Solis</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>279</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +780,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -519,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -537,6 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,21 +1120,21 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="17.140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="24.85546875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1120,6 +1420,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781B4C5F-8FB5-4E95-A6B6-37057A165283}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="false"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="45.7109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="12">
+        <v>86368</v>
+      </c>
+      <c r="C7" s="12">
+        <v>86366</v>
+      </c>
+      <c r="D7" s="12">
+        <v>86367</v>
+      </c>
+      <c r="E7" s="12">
+        <v>86365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1133,15 +1581,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1428,18 +1876,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F538DDC-4485-4BB7-A250-A1E3359FA4C7}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1697,16 +2145,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="35.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="34.140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="35.85546875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="34.140625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.42578125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1889,24 +2337,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF91204-84AA-490A-8DF5-9249B8D23061}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="35.85546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="32.5703125" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="40.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,19 +2631,20 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2234,8 +2683,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -2246,13 +2695,13 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H2" t="s">
@@ -2587,4 +3036,745 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AD0E81-12F6-41E5-AE6B-23F3D24514CA}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="34.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.28515625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="16.42578125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.28515625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06F25A6-2BA9-4962-9DD1-121FF24F5A98}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.85546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C5FA1C-6C5D-4C0C-A08A-9D17427ED00D}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.28515625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="8">
+        <v>86375</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="8">
+        <v>86376</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2000</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="8">
+        <v>86377</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Configuration/EngineeringCreateData.xlsx
+++ b/Configuration/EngineeringCreateData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3619B1E1-D3B2-4716-BF31-17A5E5D06282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2C3758F9-C0D8-45C0-A7D2-9957EA876ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContractorMaster_Create" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,18 @@
     <sheet name="Indent_Create" sheetId="7" r:id="rId6"/>
     <sheet name="PO_Create" sheetId="10" r:id="rId7"/>
     <sheet name="GRN_Create" sheetId="17" r:id="rId8"/>
-    <sheet name="Workorder_Create" sheetId="14" r:id="rId9"/>
-    <sheet name="Abstract_Create" sheetId="15" r:id="rId10"/>
+    <sheet name="Workorder_Create1" sheetId="14" r:id="rId9"/>
+    <sheet name="Workorder_Create" sheetId="20" r:id="rId10"/>
+    <sheet name="Abstract_Create" sheetId="15" r:id="rId11"/>
+    <sheet name="WorkorderAdvance_Create" sheetId="18" r:id="rId12"/>
+    <sheet name="WorkOrderCert_Create" sheetId="19" r:id="rId13"/>
+    <sheet name="Workorder_DebitNote_Create" sheetId="21" r:id="rId14"/>
+    <sheet name="Workorder_DNReceipt_Create" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
+  <oleSize ref="A1:L16"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="294">
   <si>
     <t>Contractor name</t>
   </si>
@@ -305,9 +310,6 @@
     <t>1500</t>
   </si>
   <si>
-    <t>6500</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
@@ -590,12 +592,6 @@
     <t>Received Qty</t>
   </si>
   <si>
-    <t>100.65</t>
-  </si>
-  <si>
-    <t>60.20</t>
-  </si>
-  <si>
     <t>IND/BTSP/THD/42/7</t>
   </si>
   <si>
@@ -707,9 +703,6 @@
     <t>99acres.com (WO/BTSP/RPTGSA3/62)</t>
   </si>
   <si>
-    <t>AASTHA (WO/BTSP/RPTGSA3/60)</t>
-  </si>
-  <si>
     <t>Z-TECH (INDIA) PVT. LTD. (WO/BTSP/RPTGSA3/61)</t>
   </si>
   <si>
@@ -743,15 +736,197 @@
     <t>20</t>
   </si>
   <si>
-    <t>279</t>
+    <t>8250.65</t>
+  </si>
+  <si>
+    <t>600.20</t>
+  </si>
+  <si>
+    <t>workorder</t>
+  </si>
+  <si>
+    <t>Advance type</t>
+  </si>
+  <si>
+    <t>Certified amount</t>
+  </si>
+  <si>
+    <t>bank paym-account</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/122</t>
+  </si>
+  <si>
+    <t>Adhoc</t>
+  </si>
+  <si>
+    <t>AXIS BANK LTD</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/123</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/124</t>
+  </si>
+  <si>
+    <t>Work order number</t>
+  </si>
+  <si>
+    <t>Type of certificate</t>
+  </si>
+  <si>
+    <t>Invoice Amount</t>
+  </si>
+  <si>
+    <t>Abstract Date</t>
+  </si>
+  <si>
+    <t>This certified amt</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/127</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>payment mode</t>
+  </si>
+  <si>
+    <t>Card Payment</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/128</t>
+  </si>
+  <si>
+    <t>advance adjustment in cert</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/129</t>
+  </si>
+  <si>
+    <t>debit note adjustment in cert</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>AASTHA (WO/BTSP/RPTGSA3/60)2</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Work order no</t>
+  </si>
+  <si>
+    <t>Debit Note Type</t>
+  </si>
+  <si>
+    <t>Reason Type</t>
+  </si>
+  <si>
+    <t>Debit Note amount</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/130</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>CAR POLICY DEDUCTION</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/131</t>
+  </si>
+  <si>
+    <t>JCB HIRE CHARGES</t>
+  </si>
+  <si>
+    <t>Material Sales</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>86376</t>
+  </si>
+  <si>
+    <t>86377</t>
+  </si>
+  <si>
+    <t>86369</t>
+  </si>
+  <si>
+    <t>certifying company</t>
+  </si>
+  <si>
+    <t>subproject</t>
+  </si>
+  <si>
+    <t>contractor</t>
+  </si>
+  <si>
+    <t>receipt currency</t>
+  </si>
+  <si>
+    <t>Debit Note No</t>
+  </si>
+  <si>
+    <t>current receipt amount</t>
+  </si>
+  <si>
+    <t>bank name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field </t>
+  </si>
+  <si>
+    <t>99acres.com, Kolkata</t>
+  </si>
+  <si>
+    <t>INR-Indian Rupee</t>
+  </si>
+  <si>
+    <t>ABU DHABI COMMERCIAL BANK</t>
+  </si>
+  <si>
+    <t>recovery in payment full flow</t>
+  </si>
+  <si>
+    <t>A.C. Construction, Durgapur</t>
+  </si>
+  <si>
+    <t>AIR FORCE GROUP INSURANCE</t>
+  </si>
+  <si>
+    <t>Z-TECH (INDIA) PVT. LTD., Kolkata</t>
+  </si>
+  <si>
+    <t>Online Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +969,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1F32"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -815,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -837,6 +1018,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,16 +1310,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="24.85546875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1424,28 +1609,277 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781B4C5F-8FB5-4E95-A6B6-37057A165283}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6168C823-DA12-4280-A8AC-5B802C505C23}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="false"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="45.7109375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" t="s">
-        <v>237</v>
-      </c>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="17">
+        <v>86375</v>
+      </c>
+      <c r="M2" s="17">
+        <v>10</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" s="17">
+        <v>86376</v>
+      </c>
+      <c r="M3" s="17">
+        <v>1</v>
+      </c>
+      <c r="N3" s="17">
+        <v>2000</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="17">
+        <v>86377</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781B4C5F-8FB5-4E95-A6B6-37057A165283}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1466,7 +1900,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>87</v>
@@ -1483,19 +1917,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,24 +1951,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" s="12">
         <v>86368</v>
@@ -1551,10 +1985,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -1565,6 +1999,566 @@
       <c r="E8" s="12">
         <v>2</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066C0925-5B54-4AB4-98BD-C5B1A8756623}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80818D-F6AE-4A8F-B51F-4AD123CA807D}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>45111</v>
+      </c>
+      <c r="G2" s="8">
+        <v>86369</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="8">
+        <v>15000</v>
+      </c>
+      <c r="F3" s="15">
+        <v>45113</v>
+      </c>
+      <c r="G3" s="8">
+        <v>86370</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>45108</v>
+      </c>
+      <c r="G4" s="8">
+        <v>86377</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="8">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764CED7E-DC88-4B05-81DD-0888906B840C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8774D6-7FA5-4923-98A1-995C43F38ECD}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="18">
+        <v>210</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="18">
+        <v>211</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1500</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="18">
+        <v>212</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,15 +2575,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1882,17 +2876,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1917,7 +2911,7 @@
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>39</v>
@@ -1953,7 +2947,7 @@
         <v>40</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,7 +2955,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
@@ -2019,7 +3013,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -2145,16 +3139,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="35.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="34.140625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="35.85546875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="34.140625" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="7.42578125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2338,23 +3332,23 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="35.85546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="32.5703125" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="19.5703125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="40.28515625" collapsed="false"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,236 +3383,242 @@
         <v>83</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M1" s="8"/>
       <c r="N1" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="K2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="M3" s="8"/>
       <c r="N3" s="5" t="s">
         <v>83</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>141</v>
+      <c r="O6" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2630,406 +3630,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B825C97-06D4-4390-B663-87FD0F45C2E0}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>108</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
         <v>107</v>
       </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
       </c>
       <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
         <v>107</v>
       </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>108</v>
-      </c>
-      <c r="K4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
       </c>
       <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
         <v>105</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>108</v>
-      </c>
-      <c r="K5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>108</v>
-      </c>
-      <c r="K6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
       </c>
       <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
         <v>105</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
         <v>107</v>
       </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>108</v>
-      </c>
-      <c r="K8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
       <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
         <v>107</v>
       </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
       </c>
       <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
         <v>105</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
         <v>107</v>
       </c>
-      <c r="F10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>108</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
       </c>
       <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
         <v>105</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
         <v>107</v>
       </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3042,24 +4042,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AD0E81-12F6-41E5-AE6B-23F3D24514CA}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="34.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.28515625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="16.42578125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.28515625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3067,234 +4067,234 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" t="s">
-        <v>157</v>
-      </c>
       <c r="N1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3308,218 +4308,218 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="45.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.85546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="F1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3529,250 +4529,274 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C5FA1C-6C5D-4C0C-A08A-9D17427ED00D}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.42578125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="N2" s="8">
+        <v>86375</v>
+      </c>
+      <c r="O2" s="8">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="8">
-        <v>86375</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="N3" s="8">
+        <v>86376</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2000</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="8">
-        <v>86376</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8">
-        <v>2000</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R3" s="8">
+      <c r="R3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="T3" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="N4" s="8">
+        <v>86377</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="8">
-        <v>86377</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="R4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
